--- a/biology/Médecine/Patella_(os)/Patella_(os).xlsx
+++ b/biology/Médecine/Patella_(os)/Patella_(os).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rotule
-La patella (ou rotule en ancienne nomenclature ou boulette de genou en français cadien[1]) est un os sésamoïde[2] du genou. Chez l'Homme, c'est un petit os plat, triangulaire situé à la partie antérieure du genou intégré dans le tendon du quadriceps et articulé avec le fémur. 
+La patella (ou rotule en ancienne nomenclature ou boulette de genou en français cadien) est un os sésamoïde du genou. Chez l'Homme, c'est un petit os plat, triangulaire situé à la partie antérieure du genou intégré dans le tendon du quadriceps et articulé avec le fémur. 
 Le terme « patellaire » désigne tout ce qui est en rapport avec la rotule. C’est ainsi que l’on parle de la recherche du réflexe patellaire et de son abolition (signe de Westphal).
 </t>
         </is>
@@ -513,58 +525,272 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La patella se présente sous la forme d’un os arrondi plus ou moins triangulaire aplati d'avant en arrière avec une pointe dirigée vers le bas
 On lui décrit deux faces, une antérieure et une postérieure, avec trois bords : un supérieur ou base de la patella, un médial et un latéral, et un sommet ou apex de la patella.
-Face antérieure
-La face antérieure est convexe. Elle est creusée de trous vasculaires et de sillons verticaux marqués par les faisceaux antérieurs du tendon du muscle quadriceps fémoral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face antérieure est convexe. Elle est creusée de trous vasculaires et de sillons verticaux marqués par les faisceaux antérieurs du tendon du muscle quadriceps fémoral.
 Elle est sous-cutanée et séparée de la peau par une bourse séreuse.
 Sa partie supérieure est rugueuse et donne attache au muscle droit fémoral. Le tendon patellaire s'insère sur sa partie inférieure lisse.
-Face postérieure ou face articulaire
-La face postérieure est divisée en deux parties : une partie supérieure correspondant aux trois quarts supérieurs, et une partie inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face postérieure ou face articulaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face postérieure est divisée en deux parties : une partie supérieure correspondant aux trois quarts supérieurs, et une partie inférieure.
 La partie supérieure est recouverte de cartilage et répond à la surface patellaire du fémur. Une crête mousse verticale correspond à la gorge de la trochlée fémorale. Elle sépare une facette latérale qui s'adapte au versant latéral de la surface patellaire du fémur et une facette médiale qui s'adapte au versant médial de la surface patellaire du fémur.
 Les facettes sont concaves en tout sens.
 La facette latérale est plus large et excavée que la médiale.
 La partie inférieure est rugueuse et donne insertion au ligament patellaire et au corps adipeux infrapatellaire.
-Base de la patella
-La base de la patella est triangulaire à sommet postérieur et inclinée vers l'avant. Elle donne insertion au tendon du muscle quadriceps fémoral dans ces deux tiers antérieurs. Sa partie postérieure est recouverte de cartilage hyalin et en rapport avec la cavité articulaire.
-Apex de la patella
-L’apex se situe au point de rencontre des bords latéral et médial de la patella. Il donne attache au ligament patellaire renforcé en avant par le tendon du droit fémoral. L’ensemble forme le tendon patellaire. L’apex est accessible à la palpation, genoux en extension.
-Bords latéraux
-Les bords latéraux sont convexes formant une demi-circonférence reliant l'apex et la base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Base de la patella</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base de la patella est triangulaire à sommet postérieur et inclinée vers l'avant. Elle donne insertion au tendon du muscle quadriceps fémoral dans ces deux tiers antérieurs. Sa partie postérieure est recouverte de cartilage hyalin et en rapport avec la cavité articulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Apex de la patella</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’apex se situe au point de rencontre des bords latéral et médial de la patella. Il donne attache au ligament patellaire renforcé en avant par le tendon du droit fémoral. L’ensemble forme le tendon patellaire. L’apex est accessible à la palpation, genoux en extension.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bords latéraux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bords latéraux sont convexes formant une demi-circonférence reliant l'apex et la base.
 Ils donnent attache au muscle vaste médial et latéral et au rétinaculum de la patella.
-Variations
-La patella peut être divisée en deux parties (patella bipartita). Cette séparation peut apparaître en fin de croissance et c'est une anomalie ordinairement asymptomatique.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Patella_(os)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Variations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La patella peut être divisée en deux parties (patella bipartita). Cette séparation peut apparaître en fin de croissance et c'est une anomalie ordinairement asymptomatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La patella s’articule en arrière avec l’extrémité inférieure du fémur appelée la surface patellaire du fémur, formant l’articulation fémoro-patellaire. Elle joue un rôle important dans le mouvement d'extension et de flexion du genou.
 La patella, triangulaire en vue supérieure, possède une crête médiane s'articulant avec le rail formé par la surface patellaire (ou trochlée fémorale en ancienne nomenclature) de l'extrémité distale du fémur.
@@ -577,115 +803,299 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Patella_(os)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre d'ossification de la patella se développe à l'âge de 3 à 6 ans[3]. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Patella_(os)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre d'ossification de la patella se développe à l'âge de 3 à 6 ans. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luxation patellaire
-Les luxations patellaires peuvent survenir, en particulier chez les jeunes athlètes féminines[4]. Elles sont dues au glissement de la patella hors de sa position sur le genou, le plus souvent latéralement. Elle occasionne une douleur et un gonflement extrêmement intenses[5]. La rotule peut être ramenée dans la rainure avec une extension du genou et revient parfois d'elle-même dans la bonne position[5].
-Fracture patellaire
-La situation de la patella implique qu'un traumatisme direct du genou peut entraîner sa fracture. Ces fractures provoquent généralement un gonflement et des douleurs dans la région pouvant être accompagnés de saignements dans l'articulation (hémarthrose). Elle entraîne une incapacité à étendre le genou.
-Les fractures de la patella sont généralement traitées par chirurgie, à moins que les dommages ne soient minimes, sans déplacement, et que le mécanisme d'extension soit intact[6].
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Luxation patellaire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les luxations patellaires peuvent survenir, en particulier chez les jeunes athlètes féminines. Elles sont dues au glissement de la patella hors de sa position sur le genou, le plus souvent latéralement. Elle occasionne une douleur et un gonflement extrêmement intenses. La rotule peut être ramenée dans la rainure avec une extension du genou et revient parfois d'elle-même dans la bonne position.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fracture patellaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La situation de la patella implique qu'un traumatisme direct du genou peut entraîner sa fracture. Ces fractures provoquent généralement un gonflement et des douleurs dans la région pouvant être accompagnés de saignements dans l'articulation (hémarthrose). Elle entraîne une incapacité à étendre le genou.
+Les fractures de la patella sont généralement traitées par chirurgie, à moins que les dommages ne soient minimes, sans déplacement, et que le mécanisme d'extension soit intact.
 En cas de déplacement, il est nécessaire d’opérer et de mettre en place une ostéosynthèse (cerclage de la patella) qui consiste à faire pénétrer un fil de fer en forme de 8 à travers les différents fragments de patella (haubanage). Dans ce cas, l’immobilisation durant environ un mois et demi, le déplacement est possible grâce à l’utilisation d’une attelle permettant de maintenir le genou en extension.
 La fracture de la patella évolue quelquefois vers une forme d'arthrose entraînant un syndrome rotulien. L'atteinte cartilagineuse de la patella se caractérise par une douleur du genou essentiellement quand il est plié, lors des mouvements et lors de la descente des escaliers (entre autres).
-Défaut d'alignement vertical
-La patella peut être mal positionnée sur le plan vertical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Défaut d'alignement vertical</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La patella peut être mal positionnée sur le plan vertical.
 Une patella alta est une rotule haute (alignée supérieurement). Une patella alta atténuée est une rotule inhabituellement petite qui se développe hors et au-dessus de l' articulation .
-Une patella baja est une rotule basse. Une rotule basse de longue date peut entraîner un dysfonctionnement des extenseurs[7].
-Exostose
-Une exostose est la formation d'os nouveau sur un os, à la suite d'une formation excessive de calcium . Cela peut être la cause de douleurs chroniques lorsqu'elles se forment sur la rotule.
-Ostéo-onychodysplasie
-L'ostéo-onychodysplasie est une maladie génétique qui se caractérise par l'atteinte des ongles, des genoux, des coudes et des ailes iliaques. Au niveau des patellas, elle se caractérise par leur hypoplasie pouvant entraîner une instabilité du genou.
-Saturnisme
-La patella (comme tout le squelette) peut accumuler du plomb. En effet, 80 % environ du plomb bioaccumulé par le corps humain se fixe sur le squelette. La mesure de la teneur en plomb de la patella, effectuée in situ par fluorescence X peut révéler un saturnisme discret[Note 1]. Celui-ci est susceptible d'augmenter le risque d'hypertension artérielle[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Patella_(os)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Une patella baja est une rotule basse. Une rotule basse de longue date peut entraîner un dysfonctionnement des extenseurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Exostose</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une exostose est la formation d'os nouveau sur un os, à la suite d'une formation excessive de calcium . Cela peut être la cause de douleurs chroniques lorsqu'elles se forment sur la rotule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ostéo-onychodysplasie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ostéo-onychodysplasie est une maladie génétique qui se caractérise par l'atteinte des ongles, des genoux, des coudes et des ailes iliaques. Au niveau des patellas, elle se caractérise par leur hypoplasie pouvant entraîner une instabilité du genou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Saturnisme</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La patella (comme tout le squelette) peut accumuler du plomb. En effet, 80 % environ du plomb bioaccumulé par le corps humain se fixe sur le squelette. La mesure de la teneur en plomb de la patella, effectuée in situ par fluorescence X peut révéler un saturnisme discret[Note 1]. Celui-ci est susceptible d'augmenter le risque d'hypertension artérielle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Patella_(os)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patella_(os)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">La rotule se trouve chez les mammifères placentaires et les oiseaux.
-La plupart des marsupiaux ont des rotules rudimentaires et non ossifiées, bien que quelques espèces possèdent une rotule osseuse[9].
+La plupart des marsupiaux ont des rotules rudimentaires et non ossifiées, bien que quelques espèces possèdent une rotule osseuse.
 Une rotule est également présente chez les monotrèmes vivants, l'ornithorynque et l'échidné. 
-Chez les tétrapodes plus primitifs, y compris les amphibiens vivants et la plupart des reptiles (à l'exception de certains lépidosaures), les tendons musculaires de la partie supérieure de la jambe sont attachés directement au tibia et aucune rotule n'est présente[10].
-En 2017, on a découvert que les grenouilles avaient des rotules, contrairement à ce que l'on pensait. Cela soulève la possibilité que la rotule soit apparue il y a 350 millions d'années lorsque les tétrapodes sont apparus pour la première fois, mais qu'elle ait disparu chez certains animaux[11],[12].
+Chez les tétrapodes plus primitifs, y compris les amphibiens vivants et la plupart des reptiles (à l'exception de certains lépidosaures), les tendons musculaires de la partie supérieure de la jambe sont attachés directement au tibia et aucune rotule n'est présente.
+En 2017, on a découvert que les grenouilles avaient des rotules, contrairement à ce que l'on pensait. Cela soulève la possibilité que la rotule soit apparue il y a 350 millions d'années lorsque les tétrapodes sont apparus pour la première fois, mais qu'elle ait disparu chez certains animaux,.
 </t>
         </is>
       </c>
